--- a/交流管理/项目日报/每日要做的事模板-夏金龙.xlsx
+++ b/交流管理/项目日报/每日要做的事模板-夏金龙.xlsx
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -513,6 +513,11 @@
       </c>
       <c r="E3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/每日要做的事模板-夏金龙.xlsx
+++ b/交流管理/项目日报/每日要做的事模板-夏金龙.xlsx
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -515,11 +515,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/每日要做的事模板-夏金龙.xlsx
+++ b/交流管理/项目日报/每日要做的事模板-夏金龙.xlsx
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -515,6 +515,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
